--- a/run/keyword.xlsx
+++ b/run/keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -572,6 +572,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -592,32 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,6 +617,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -656,7 +648,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -666,13 +658,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,7 +673,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +687,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -753,6 +753,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -765,37 +801,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,13 +873,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,91 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,15 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -958,6 +949,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,15 +986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1006,6 +997,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,133 +1038,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>

--- a/run/keyword.xlsx
+++ b/run/keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="20328" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>lua开发已实现</t>
   </si>
   <si>
-    <t>online|start|recvframe|pong|ping|websocket|</t>
+    <t>online|recvframe|pong|ping|websocket|</t>
   </si>
   <si>
     <t>廖瑞</t>
@@ -530,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -565,7 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,7 +579,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,13 +587,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,10 +617,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,7 +648,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -657,7 +657,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +665,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,13 +680,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -695,7 +688,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,169 +747,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,6 +971,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -982,6 +993,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,36 +1020,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,37 +1038,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,94 +1077,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>

--- a/run/keyword.xlsx
+++ b/run/keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8675"/>
+    <workbookView windowWidth="16128" windowHeight="6755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>blecomm|btcore|setvisibility|uuid|getvisibility|beacon|蓝牙|getavrcpvol|setname|findcharacteristic|setavrcpsongs|bleind|bluetooth|bleadv|setavrcpvol|btmac|findservice|tcomm|opennotification|blescan|advertising|</t>
+  </si>
+  <si>
+    <t>伍珈沁</t>
   </si>
   <si>
     <t>谢萧辉</t>
@@ -262,9 +265,6 @@
     <t>扫码|gc6153|拍照|二维码|qrcode|gc0310|bf302|camera|摄像头|qrencode|</t>
   </si>
   <si>
-    <t>伍珈沁</t>
-  </si>
-  <si>
     <t>存储类</t>
   </si>
   <si>
@@ -530,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -565,7 +565,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,16 +586,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,11 +616,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,13 +635,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,9 +662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,6 +685,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -688,21 +702,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,169 +747,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,6 +934,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,26 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -993,15 +982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,16 +1000,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,133 +1038,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1726,58 +1726,58 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="27.6" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="69" spans="1:7">
@@ -1785,22 +1785,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="27.6" spans="1:7">
@@ -1808,69 +1808,69 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" ht="27.6" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="22.8" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="22.8" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>23</v>
@@ -1880,16 +1880,16 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -1899,11 +1899,11 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" ht="27.6" spans="1:7">
@@ -1911,31 +1911,31 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="41.4" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" t="s">
@@ -1950,7 +1950,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>75</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>75</v>
@@ -1990,13 +1990,13 @@
     </row>
     <row r="23" ht="41.4" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
@@ -2011,13 +2011,13 @@
     </row>
     <row r="24" ht="27.6" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
@@ -2077,7 +2077,7 @@
         <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -2098,7 +2098,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -2163,7 +2163,7 @@
         <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>110</v>
@@ -2182,7 +2182,7 @@
         <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>110</v>
@@ -2203,7 +2203,7 @@
         <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>110</v>
@@ -2267,7 +2267,7 @@
         <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
@@ -2290,7 +2290,7 @@
         <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
         <v>128</v>
@@ -2375,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -2439,10 +2439,10 @@
         <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
         <v>149</v>

--- a/run/keyword.xlsx
+++ b/run/keyword.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16128" windowHeight="6755"/>
+    <workbookView windowWidth="22356" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$46</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="158">
   <si>
     <t>模块负责人第1</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>cipstart|cipmode|ftpputname|ciprxf|ftpgetpath|ftpstate|cipsprt|cipats|ftpputopt|ftpquit|ciptka|ftp下载|heartconfig|ftpmkd|cstt|*dnstmout|cipssl|heartinquire|cipsend|cipshut|ftpcid|cdnscfg|heartbeat|ciicr|ftprmd|ftpextget|ftpgettofs|tcp|routeip|cipsrip|ftpdele|ato|ftpget|heartbeathex|cipping|ftpputfrmfs|+receive|ftpputpath|clport|ftppw|ftpun|cipshowtp|cifsr|cdnsgip|cipcsgp|ciphead|cipmux|cipack|ftpmode|ftpscont|ftpport|ftpserv|ftpput|cipslose|cipscont|ftpgetname|ftptype|ftpfileput|ftplist|udp|cipqsend|ftpextput|cipstatus|ftprest|cipccfg|ftpsize|tcpuserparam|sslcfg|ciprxget|</t>
+  </si>
+  <si>
+    <t>AT:   短信，通话，电话本</t>
+  </si>
+  <si>
+    <t>PDU|读短信|短信|CSMS|CMGS|短信中心号码|AT+CSCA</t>
   </si>
   <si>
     <t>刘清宇</t>
@@ -179,6 +185,12 @@
     <t>headphone|spk|setstrategy|crsl|播放|caccp|通道|audio|耳机|ctts|setmicgain|i2saudio|setttsspeed|录音|caudplay|setchannel|caudrec|听筒|audch|mic|音频|setvolume|麦克|getvolume|speaker|play|喇叭|spkpa|cttsparam|headset|</t>
   </si>
   <si>
+    <t>音频调试</t>
+  </si>
+  <si>
+    <t>mic增益|音频参数|声音卡顿|断续|回音|破音|声音小</t>
+  </si>
+  <si>
     <t>谭立元</t>
   </si>
   <si>
@@ -194,6 +206,15 @@
     <t>串口|控制台|modbus|rs485|cmux|uart|ttl|console|rs232|</t>
   </si>
   <si>
+    <t>祝平军</t>
+  </si>
+  <si>
+    <t>串口不通（偏硬件）</t>
+  </si>
+  <si>
+    <t>串口不通|at没反应</t>
+  </si>
+  <si>
     <t>USB</t>
   </si>
   <si>
@@ -201,9 +222,6 @@
   </si>
   <si>
     <t>boot|驱动|识别不到端口|</t>
-  </si>
-  <si>
-    <t>祝平军</t>
   </si>
   <si>
     <t>SIM卡应用</t>
@@ -305,7 +323,7 @@
     <t>GPIO/PWM/键盘</t>
   </si>
   <si>
-    <t>keypad|gpio|pwm|pin|键盘|pio|</t>
+    <t>keypad|gpio|pwm|pin|键盘|pio|短路|对地短路</t>
   </si>
   <si>
     <t>ADC</t>
@@ -440,7 +458,7 @@
     <t>pm.wake|csclk|pm.sleep|功耗|powerconsumption|waketim|休眠|</t>
   </si>
   <si>
-    <t xml:space="preserve">  廖瑞</t>
+    <t xml:space="preserve">  邓海</t>
   </si>
   <si>
     <t>联网</t>
@@ -530,12 +548,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +575,14 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
@@ -565,7 +591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,8 +604,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,13 +658,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -631,10 +665,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,6 +689,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -662,37 +704,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -707,6 +719,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -747,6 +773,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -759,31 +815,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,109 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,6 +946,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -962,30 +1012,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1004,8 +1030,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1052,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,137 +1064,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,8 +1224,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1529,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1612,149 +1641,149 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" ht="27.6" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="10" t="s">
+    </row>
+    <row r="8" ht="27.6" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="41.4" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10" t="s">
+    </row>
+    <row r="10" ht="41.4" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" t="s">
         <v>44</v>
       </c>
@@ -1762,15 +1791,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="27.6" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" t="s">
@@ -1780,696 +1809,739 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="69" spans="1:7">
+    <row r="13" ht="27.6" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" ht="27.6" spans="1:7">
+    </row>
+    <row r="14" ht="69" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="14" t="s">
+    </row>
+    <row r="16" ht="27.6" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" ht="27.6" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" ht="22.8" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="G16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="15" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="22.8" spans="1:7">
-      <c r="A17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="27.6" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
+    </row>
+    <row r="19" ht="22.8" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" ht="27.6" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" t="s">
+      <c r="F19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="14" t="s">
+    </row>
+    <row r="20" customFormat="1" ht="22.8" spans="1:7">
+      <c r="A20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" ht="41.4" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" ht="27.6" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="G22" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" ht="41.4" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" ht="27.6" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="13" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" ht="27.6" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:7">
+    <row r="26" ht="41.4" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" ht="27.6" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" ht="27.6" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14" t="s">
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>104</v>
-      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>107</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" ht="27.6" spans="1:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="13" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" ht="41.4" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="G36" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" customFormat="1" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" ht="69" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" ht="27.6" spans="1:7">
       <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" ht="41.4" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
         <v>131</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G39" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+    <row r="40" ht="69" spans="1:7">
+      <c r="A40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14" t="s">
+      <c r="G40" s="14" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" ht="27.6" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" ht="27.6" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" customFormat="1" ht="27.6" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" spans="1:3">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-    </row>
+      <c r="G45" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="27.6" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1"/>
     <row r="49" spans="1:3">
       <c r="A49"/>
       <c r="B49"/>
@@ -2480,15 +2552,30 @@
       <c r="B50"/>
       <c r="C50"/>
     </row>
-    <row r="51" customFormat="1"/>
+    <row r="51" spans="1:3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" customFormat="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D16:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/run/keyword.xlsx
+++ b/run/keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020"/>
+    <workbookView windowWidth="17208" windowHeight="9575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -591,7 +591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,14 +606,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +664,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,6 +672,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -649,37 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -689,7 +711,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -697,7 +719,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -711,28 +733,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -773,13 +773,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +857,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,121 +899,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,6 +946,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -973,17 +1029,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,66 +1046,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,130 +1067,130 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1560,8 +1560,8 @@
   <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>143</v>
